--- a/archivos/Formato_entradas.xlsx
+++ b/archivos/Formato_entradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Alyvan\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E108A1-075E-4E90-B7E4-61898196D5F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6115CFD-EE72-48DE-9826-3AE0EE55F655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E014B8AF-7DCA-4C75-9CB3-EBEDF4F01166}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Código de Barras</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Lote</t>
+  </si>
+  <si>
+    <t>Posición</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -168,11 +171,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -204,6 +220,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2BBB81-345E-4518-BBD1-A22CE6C88B63}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +570,7 @@
     <col min="18" max="18" width="17.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -589,11 +614,14 @@
       <c r="Q1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="S1" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="5" t="s">
         <v>11</v>
@@ -623,32 +651,34 @@
         <v>13</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="18"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="L3" s="8"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="Q4" s="4"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H5" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="B1:D1"/>
